--- a/Arcpy_Conversions.xlsx
+++ b/Arcpy_Conversions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESRI_stuff\python_scripts\GitHub\NRCS_Engineering_Tools_ArcPro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_scripts\GitHub\NRCS_Engineering_Tools_ArcPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376D8C95-99D5-435D-8721-CA86F515C965}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79451D74-F9BE-4BE0-B5C8-422C664A4CCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26745" yWindow="1095" windowWidth="23880" windowHeight="15810" xr2:uid="{DB3DCD11-7415-4489-B101-CE405B0F8322}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB3DCD11-7415-4489-B101-CE405B0F8322}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool Status" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>Tool</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>Change VB expressions to Python3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update print_exception from Define_AOI.py script.  </t>
+  </si>
+  <si>
+    <t>sys.exit() to exit()</t>
   </si>
 </sst>
 </file>
@@ -675,11 +681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED956961-D896-49E7-973B-1835953B4B1D}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1218,19 +1224,35 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
